--- a/cat_fee.xlsx
+++ b/cat_fee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18100" windowHeight="12540" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="18100" windowHeight="12540" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="funeral" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
   <si>
     <t>Level1</t>
   </si>
@@ -295,43 +295,49 @@
     <t>貓隻（每隻）</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>狂犬病預防疫苗（每劑）</t>
   </si>
   <si>
+    <t>包含三種：貓鼻氣管炎（FVR）、卡里西病毒（C）、貓泛白血球減少症（P）</t>
+  </si>
+  <si>
     <t>每年追加一次</t>
   </si>
   <si>
-    <t>DHPPiL 五合一</t>
-  </si>
-  <si>
-    <t>犬瘟熱、肝炎、副流感、細小病毒、鉤端螺旋體</t>
+    <t>FVRCP（三合一）</t>
+  </si>
+  <si>
+    <t>法定疫苗，部份地區雖不強制但仍建議</t>
   </si>
   <si>
     <t>$600 – $900／劑</t>
   </si>
   <si>
-    <t>冠狀病毒疫苗</t>
-  </si>
-  <si>
-    <t>腸道冠狀病毒</t>
+    <t>FeLV（貓白血病）</t>
+  </si>
+  <si>
+    <t>容易經唾液、舔毛傳染</t>
   </si>
   <si>
     <t>$400 – $800／劑</t>
   </si>
   <si>
-    <t>萊姆病疫苗</t>
-  </si>
-  <si>
-    <t>由蜱蟲引起的萊姆病</t>
+    <t>Chlamydia（披衣菌）</t>
+  </si>
+  <si>
+    <t>會導致眼睛紅腫、鼻涕、結膜炎</t>
   </si>
   <si>
     <t>$500 – $800／劑</t>
   </si>
   <si>
-    <t>犬咳（Bordetella）</t>
-  </si>
-  <si>
-    <t>傳染性氣管支氣管炎（犬舍咳）</t>
+    <t>Bordetella（博德特氏菌）</t>
+  </si>
+  <si>
+    <t>呼吸道感染</t>
   </si>
   <si>
     <t>每年一次／多犬場域更頻密</t>
@@ -1981,7 +1987,7 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2286,29 +2292,35 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:7">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2">
-        <v>600</v>
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F6" si="0">G2*1.2</f>
@@ -2318,19 +2330,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" ht="101" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" ht="34" spans="1:7">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="5">
+        <v>480</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -2341,18 +2355,20 @@
       </c>
     </row>
     <row r="4" ht="34" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5">
+        <v>480</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -2362,19 +2378,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5"/>
+    <row r="5" ht="34" spans="1:7">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5">
+        <v>480</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2384,19 +2402,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" ht="68" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="5"/>
+    <row r="6" ht="51" spans="1:7">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5">
+        <v>480</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2433,7 +2453,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B15" si="0">D2*1.2</f>
@@ -2445,7 +2465,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
@@ -2457,7 +2477,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -2469,7 +2489,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -2481,7 +2501,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -2493,7 +2513,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -2505,7 +2525,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -2517,7 +2537,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -2529,7 +2549,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -2541,7 +2561,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -2553,7 +2573,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -2565,7 +2585,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -2577,7 +2597,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -2589,7 +2609,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -2626,7 +2646,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B12" si="0">D2*1.2</f>
@@ -2638,7 +2658,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
@@ -2650,7 +2670,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -2662,7 +2682,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -2674,7 +2694,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -2686,7 +2706,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -2698,7 +2718,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -2710,7 +2730,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -2722,7 +2742,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -2734,7 +2754,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -2746,7 +2766,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -2821,8 +2841,8 @@
   <sheetPr/>
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2843,79 +2863,79 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>121</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>122</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
         <v>124</v>
       </c>
-      <c r="O1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="T1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W1" t="s">
-        <v>120</v>
-      </c>
       <c r="X1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2">
         <v>480</v>
@@ -2998,7 +3018,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2">
         <v>960</v>
@@ -3059,11 +3079,11 @@
         <v>0.54888</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:Y3" si="1">SUM(I2,O2)</f>
+        <f>SUM(I2,O2)</f>
         <v>331.848</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U3:Y3" si="1">SUM(J2,P2)</f>
         <v>11.0616</v>
       </c>
       <c r="W3">
@@ -3081,7 +3101,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <f>1000*1.2</f>
@@ -3163,9 +3183,9 @@
         <v>0.64488</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <f>1000*1.2</f>
@@ -3226,10 +3246,30 @@
         <f t="array" ref="S5">SUMPRODUCT($B25:$Z25,$B$40:$Z$40)*G5</f>
         <v>48.336</v>
       </c>
+      <c r="U5">
+        <f>(U2-U3-U4)*2</f>
+        <v>102.74448</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="U5:Y5" si="4">V2-V3-V4</f>
+        <v>149.74428</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>249.7038</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>364.6452</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>491.7924</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <f>500*1.2</f>
@@ -3293,7 +3333,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <f>2000*1.2</f>
@@ -3357,7 +3397,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <f>600*1.2</f>
@@ -3421,7 +3461,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <f>1800*1.2</f>
@@ -3485,7 +3525,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <f>5000*1.2</f>
@@ -3549,7 +3589,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <f>1000*1.2</f>
@@ -3613,7 +3653,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <f>1000*1.2</f>
@@ -3677,7 +3717,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <f>1000*1.2</f>
@@ -3741,7 +3781,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <f>1000*1.2</f>
@@ -3805,7 +3845,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <f>1000*1.2</f>
@@ -3869,7 +3909,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16">
         <f>1000*1.2</f>
@@ -3933,7 +3973,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <f>2000*1.2</f>
@@ -3997,7 +4037,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <f>2000*1.2</f>
@@ -4061,7 +4101,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B19">
         <f>5000*1.2</f>
@@ -4129,19 +4169,19 @@
         <v>88.38</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" ref="J20:S20" si="4">SUM(J2:J19)</f>
+        <f t="shared" ref="J20:S20" si="5">SUM(J2:J19)</f>
         <v>38.82</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.12</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.208</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120.264</v>
       </c>
       <c r="O20" s="4">
@@ -4149,102 +4189,102 @@
         <v>617.28024</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131.65908</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>195.5736</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>277.83312</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>372.72636</v>
       </c>
     </row>
     <row r="21" spans="2:26">
       <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C21" t="s">
+      <c r="Z21" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" t="s">
-        <v>117</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4324,7 +4364,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4404,7 +4444,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4484,7 +4524,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4564,7 +4604,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4644,7 +4684,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4724,7 +4764,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4804,7 +4844,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4884,7 +4924,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4964,7 +5004,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5044,7 +5084,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5124,7 +5164,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5204,7 +5244,7 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5284,7 +5324,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5364,7 +5404,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5444,7 +5484,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5524,7 +5564,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5604,7 +5644,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B39">
         <v>1</v>
